--- a/template/b2c/template_b2c_new.xlsx
+++ b/template/b2c/template_b2c_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
   <si>
     <t>SV_5</t>
   </si>
@@ -294,6 +294,9 @@
     <t xml:space="preserve"> A8(1||13)</t>
   </si>
   <si>
+    <t>MergedFrequency</t>
+  </si>
+  <si>
     <t>rowname1=1. Стоимость услуг провайдера@;rowname2=2. Набор тарифных планов и дополнительных услуг@;rowname3=3. Скорость Интернет@;rowname4=4. Стабильность соединения Интернет@;rowname5=5. Качество и стабильность изображения Телевидения@;rowname6=6. Набор / пакет телевизионных каналов@;rowname7=7. Обслуживание в телефонной службе технической@;rowname8=8. Понятность списания денег, информирование об изменении условий тарифов и услуг@;rowname9=9. Сайт оператора@;rowname10=10. Личный кабинет абонента на сайте@;rowname11=11. Заботу о клиенте@;rowname12=12. Другое@;rowname13=13. Затрудняюсь ответить</t>
   </si>
   <si>
@@ -303,39 +306,411 @@
     <t xml:space="preserve">MainHeader=A03 </t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>A3(1||3)</t>
   </si>
   <si>
+    <t>MainHeader=A3. Были ли у Вас за последние 6 месяцев какиелибо проблемные ситуации / жалобы, для разрешения которых Вы обращались к провайдеру в телефонную службу поддержки, или в офис провайдера, или на сайт провайдера?</t>
+  </si>
+  <si>
+    <t>rowname1=Да@;rowname2=Нет@;rowname3=Затрудняюсь ответить / отказ от ответа</t>
+  </si>
+  <si>
+    <t>filter1=A3(1)</t>
+  </si>
+  <si>
+    <t>filter2=A3(2)</t>
+  </si>
+  <si>
+    <t>filter3=A3(3)</t>
+  </si>
+  <si>
     <t>A5(1||3)</t>
   </si>
   <si>
+    <t>MainHeader=А5. Приходилось ли Вам за последние 6 месяцев посещать офисы продаж и обслуживания провайдера?</t>
+  </si>
+  <si>
+    <t>filter1=A5(1)</t>
+  </si>
+  <si>
+    <t>filter2=A5(2)</t>
+  </si>
+  <si>
+    <t>filter3=A5(3)</t>
+  </si>
+  <si>
+    <t>A6(1||3)</t>
+  </si>
+  <si>
+    <t>MainHeader=А6. Приходилось ли Вам за последние 6 месяцев звонить по телефону в службу поддержки провайдера?</t>
+  </si>
+  <si>
+    <t>filter1=A6(1)</t>
+  </si>
+  <si>
+    <t>filter2=A6(2)</t>
+  </si>
+  <si>
+    <t>filter3=A6(3)</t>
+  </si>
+  <si>
+    <t>A6_1</t>
+  </si>
+  <si>
+    <t>MainHeader=A6.1. Когда Вы звонили в телефонную службу поддержки провайдера, Вам сразу ответил оператор, или сначала Вы должны были прослушать предварительно записанные голосовые сообщения, выполняющие функцию маршрутизации звонков?</t>
+  </si>
+  <si>
+    <t>rowname1=Сразу ответил оператор</t>
+  </si>
+  <si>
+    <t>rowname2=Сначала слушал голосовое сообщение</t>
+  </si>
+  <si>
+    <t>rowname3=Затрудняюсь ответить</t>
+  </si>
+  <si>
+    <t>filter1=A6_1(1)</t>
+  </si>
+  <si>
+    <t>filter2=A6_1(2)</t>
+  </si>
+  <si>
+    <t>filter3=A6_1(3)</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
     <t>A7(1||3)</t>
   </si>
   <si>
+    <t>MainHeader=А7. Есть ли у Вас личный кабинет на Интернет-сайте провайдера</t>
+  </si>
+  <si>
+    <t>filter1=A7(1)</t>
+  </si>
+  <si>
+    <t>filter2=A7(2)</t>
+  </si>
+  <si>
+    <t>filter3=A7(3)</t>
+  </si>
+  <si>
+    <t>MainHeader=А7.1. Пользовались ли Вы им за последние 6 месяцев?</t>
+  </si>
+  <si>
+    <t>filter1=A7_1(1)</t>
+  </si>
+  <si>
+    <t>filter2=A7_1(2)</t>
+  </si>
+  <si>
+    <t>filter3=A7_1(3)</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
     <t>A9(1||100)</t>
   </si>
   <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>DataPercentageOnly=true</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
     <t>S10(1|2)</t>
   </si>
   <si>
+    <t>rowname1=Мужской</t>
+  </si>
+  <si>
+    <t>rowname2=Женский</t>
+  </si>
+  <si>
+    <t>filter1=S10(1)</t>
+  </si>
+  <si>
+    <t>filter2=S10(2)</t>
+  </si>
+  <si>
+    <t>MainHeader=S10. Пол</t>
+  </si>
+  <si>
+    <t>age(1||4)</t>
+  </si>
+  <si>
+    <t>rowname1=18-25 лет</t>
+  </si>
+  <si>
+    <t>rowname2=26-35 лет</t>
+  </si>
+  <si>
+    <t>rowname3=36-45 лет</t>
+  </si>
+  <si>
+    <t>rowname4=46-55 лет</t>
+  </si>
+  <si>
+    <t>MainHeader=age. Возраст</t>
+  </si>
+  <si>
+    <t>filter1=age(1)</t>
+  </si>
+  <si>
+    <t>filter2=age(2)</t>
+  </si>
+  <si>
+    <t>filter3=age(3)</t>
+  </si>
+  <si>
+    <t>filter4=age(4)</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
     <t>X2(1||100)</t>
   </si>
   <si>
+    <t>MainHeader=Х2. Ваше семейное положение?</t>
+  </si>
+  <si>
+    <t>rowname1=Не женат (не замужем)</t>
+  </si>
+  <si>
+    <t>rowname2=Женат (замужем)</t>
+  </si>
+  <si>
+    <t>rowname3=Гражданский брак (живет вместе, но не зарегистрированы)</t>
+  </si>
+  <si>
+    <t>rowname4=Разведен (разведена)</t>
+  </si>
+  <si>
+    <t>rowname5=Вдовец (вдова)</t>
+  </si>
+  <si>
+    <t>rowname6=Отказ от ответа</t>
+  </si>
+  <si>
+    <t>filter1=X2(1)</t>
+  </si>
+  <si>
+    <t>filter2=X2(2)</t>
+  </si>
+  <si>
+    <t>filter3=X2(3)</t>
+  </si>
+  <si>
+    <t>filter4=X2(4)</t>
+  </si>
+  <si>
+    <t>filter5=X2(5)</t>
+  </si>
+  <si>
+    <t>filter6=X2(6)</t>
+  </si>
+  <si>
+    <t>X3k</t>
+  </si>
+  <si>
     <t>X3k(1||100)</t>
   </si>
   <si>
+    <t>MainHeader=X3. Сколько всего человек проживает вместе с Вами в одной квартире / доме (включая Вас и несовершеннолетних детей)?</t>
+  </si>
+  <si>
+    <t>rowname1=1</t>
+  </si>
+  <si>
+    <t>rowname2=2</t>
+  </si>
+  <si>
+    <t>rowname3=3</t>
+  </si>
+  <si>
+    <t>rowname4=4</t>
+  </si>
+  <si>
+    <t>rowname5=5+</t>
+  </si>
+  <si>
+    <t>filter6=X2(99)</t>
+  </si>
+  <si>
     <t>X3_1k(1||100)</t>
   </si>
   <si>
+    <t>MainHeader=X3.1 А сколько из них детей до 14 лет?</t>
+  </si>
+  <si>
+    <t>rowname1=Есть</t>
+  </si>
+  <si>
+    <t>rowname2=Нет</t>
+  </si>
+  <si>
+    <t>filter1=X3_1k(1)</t>
+  </si>
+  <si>
+    <t>filter2=X3_1k(2)</t>
+  </si>
+  <si>
+    <t>filter6=X3_1k(99)</t>
+  </si>
+  <si>
     <t>X4(1||100)</t>
   </si>
   <si>
+    <t>MainHeader=X4. Какое у Вас образование?</t>
+  </si>
+  <si>
+    <t>rowname1=Неполное среднее</t>
+  </si>
+  <si>
+    <t>rowname2=Среднее</t>
+  </si>
+  <si>
+    <t>rowname3=Среднее специальное</t>
+  </si>
+  <si>
+    <t>rowname4=Неполное высшее (не менее 3-х курсов)</t>
+  </si>
+  <si>
+    <t>rowname5=Высшее</t>
+  </si>
+  <si>
+    <t>rowname6=Ученая степень (кандидат наук, доктор наук)</t>
+  </si>
+  <si>
+    <t>rowname7=Отказ от ответа</t>
+  </si>
+  <si>
+    <t>filter1=X4(1)</t>
+  </si>
+  <si>
+    <t>filter2=X4(2)</t>
+  </si>
+  <si>
+    <t>filter3=X4(3)</t>
+  </si>
+  <si>
+    <t>filter4=X4(4)</t>
+  </si>
+  <si>
+    <t>filter5=X4(5)</t>
+  </si>
+  <si>
+    <t>filter6=X4(6)</t>
+  </si>
+  <si>
+    <t>filter7=X4(7)</t>
+  </si>
+  <si>
     <t>X5(1||100)</t>
   </si>
   <si>
+    <t>MainHeader=Х5. Какой в среднем в месяц Ваш личный доход (включая заработную плату, стипендии и все другие источники дохода)? Я зачитаю Вам интервалы дохода, а Вы остановите меня на интервале, который соответствует Вам.</t>
+  </si>
+  <si>
+    <t>rowname1=до 10000 руб.</t>
+  </si>
+  <si>
+    <t>rowname2=10001 - 20000 руб.</t>
+  </si>
+  <si>
+    <t>rowname3=20001 - 30000 руб.</t>
+  </si>
+  <si>
+    <t>rowname4=30001 - 40000 руб.</t>
+  </si>
+  <si>
+    <t>rowname5=40001 - 50000 руб.</t>
+  </si>
+  <si>
+    <t>rowname6=50001 - 60000 руб.</t>
+  </si>
+  <si>
+    <t>rowname7=60001 - 70000 руб.</t>
+  </si>
+  <si>
+    <t>rowname8=70001 - 80000 руб.</t>
+  </si>
+  <si>
+    <t>rowname9=80001 - 90000 руб.</t>
+  </si>
+  <si>
+    <t>rowname10=90001 - 100000 руб.</t>
+  </si>
+  <si>
+    <t>rowname11=100001+</t>
+  </si>
+  <si>
+    <t>rowname12=Отказ от ответа</t>
+  </si>
+  <si>
+    <t>X1C1</t>
+  </si>
+  <si>
+    <t>X1C1(0|1)</t>
+  </si>
+  <si>
+    <t>MainHeader=X1</t>
+  </si>
+  <si>
+    <t>rowname1=МТС</t>
+  </si>
+  <si>
+    <t>rowname2=Билайн</t>
+  </si>
+  <si>
+    <t>rowname3=Мегафон</t>
+  </si>
+  <si>
+    <t>rowname4=Теле2</t>
+  </si>
+  <si>
+    <t>rowname5=Ростелеком</t>
+  </si>
+  <si>
+    <t>rowname6=Другой</t>
+  </si>
+  <si>
+    <t>filter1=X1C1(1)</t>
+  </si>
+  <si>
+    <t>filter2=X1C2(1)</t>
+  </si>
+  <si>
+    <t>filter3=X1C3(1)</t>
+  </si>
+  <si>
+    <t>filter4=X1C4(1)</t>
+  </si>
+  <si>
+    <t>filter5=X1C5(1)</t>
+  </si>
+  <si>
+    <t>filter6=X1C6(1)</t>
+  </si>
+  <si>
+    <t>filter7=X1C7(1)</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
+    <t>HeaderTotalOnly=true</t>
+  </si>
+  <si>
     <t>OlgaLinear</t>
   </si>
   <si>
@@ -400,6 +775,42 @@
   </si>
   <si>
     <t>groupfile3=template\b2c\X1.xlsx</t>
+  </si>
+  <si>
+    <t>filter1=X5(1)</t>
+  </si>
+  <si>
+    <t>filter2=X5(2)</t>
+  </si>
+  <si>
+    <t>filter3=X5(3)</t>
+  </si>
+  <si>
+    <t>filter4=X5(4)</t>
+  </si>
+  <si>
+    <t>filter5=X5(5)</t>
+  </si>
+  <si>
+    <t>filter6=X5(6)</t>
+  </si>
+  <si>
+    <t>filter8=X5(8)</t>
+  </si>
+  <si>
+    <t>filter9=X5(9)</t>
+  </si>
+  <si>
+    <t>filter10=X5(10)</t>
+  </si>
+  <si>
+    <t>filter11=X5(11)</t>
+  </si>
+  <si>
+    <t>filter12=X5(12)</t>
+  </si>
+  <si>
+    <t>filter7=X5(7)</t>
   </si>
   <si>
     <t xml:space="preserve"> A2_1(1||13)</t>
@@ -813,19 +1224,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="E506" sqref="A266:E506"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" customHeight="1">
@@ -833,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -846,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -870,18 +1281,18 @@
     </row>
     <row r="8" spans="1:7" ht="146.25" customHeight="1">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -890,18 +1301,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="D10" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="E12" s="1" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -909,7 +1320,7 @@
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -918,17 +1329,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="D15" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -937,23 +1348,23 @@
     </row>
     <row r="18" spans="1:7">
       <c r="D18" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -962,12 +1373,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="D22" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -975,12 +1386,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" t="s">
-        <v>127</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -988,20 +1399,20 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1011,10 +1422,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="E32" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>133</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -1072,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -1085,7 +1496,7 @@
         <v>62</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="3:7">
@@ -1098,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="3:7">
@@ -1316,7 +1727,7 @@
     </row>
     <row r="84" spans="3:7">
       <c r="C84" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="3:7">
@@ -1326,7 +1737,7 @@
     </row>
     <row r="86" spans="3:7">
       <c r="E86" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="3:7">
@@ -1346,7 +1757,7 @@
     </row>
     <row r="90" spans="3:7">
       <c r="C90" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="3:7">
@@ -1354,20 +1765,20 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="3:7">
       <c r="E92" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="3:7">
       <c r="C93" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="3:7">
@@ -1377,10 +1788,10 @@
     </row>
     <row r="95" spans="3:7">
       <c r="E95" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="3:7">
@@ -1393,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="3:7">
@@ -1406,7 +1817,7 @@
         <v>80</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="3:7">
@@ -1640,32 +2051,32 @@
     </row>
     <row r="167" spans="2:5">
       <c r="C167" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="D168" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="E169" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="2:5">
       <c r="C170" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="D171" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="E172" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="2:5">
@@ -1675,12 +2086,12 @@
     </row>
     <row r="174" spans="2:5">
       <c r="D174" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="E175" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -1690,27 +2101,27 @@
     </row>
     <row r="177" spans="3:5">
       <c r="D177" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="E178" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
     </row>
     <row r="179" spans="3:5">
       <c r="C179" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="3:5">
       <c r="D180" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="E181" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="3:5">
@@ -1720,132 +2131,132 @@
     </row>
     <row r="183" spans="3:5">
       <c r="D183" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="E184" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="C185" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="D186" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="E187" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="C188" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="D189" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="3:5">
       <c r="E190" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="3:5">
       <c r="D192" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="3:5">
       <c r="C194" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="C197" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="E199" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="C200" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="3:5">
       <c r="D201" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="E202" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="C203" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="D204" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="3:5">
       <c r="E205" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="C206" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="E208" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="3:5">
@@ -1856,18 +2267,908 @@
     </row>
     <row r="210" spans="3:5">
       <c r="D210" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="3:5">
       <c r="E211" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="3:5">
       <c r="E212" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>228</v>
+      </c>
+      <c r="B307" t="s">
+        <v>95</v>
+      </c>
+      <c r="E307" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="C308" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="D309" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="E310" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="E311" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="E312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="E313" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="C315" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="D316" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="E317" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="E318" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="E319" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="E320" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="C322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="D323" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="E324" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="E325" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="E326" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="E327" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>228</v>
+      </c>
+      <c r="B329" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="C330" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="D331" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="E332" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="E333" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="E334" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="E335" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="E336" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="E337" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="E338" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>228</v>
+      </c>
+      <c r="B339" t="s">
+        <v>120</v>
+      </c>
+      <c r="E339" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="C340" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="D341" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="E342" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="E343" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="E344" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="E345" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="C346" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="D347" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="E348" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="E349" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="E350" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="E351" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="B352" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="C353" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="D354" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="E355" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="E356" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>228</v>
+      </c>
+      <c r="B368" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="C369" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="D370" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="E371" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="E372" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="E373" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="E374" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="E375" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>228</v>
+      </c>
+      <c r="C376" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="D377" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="E378" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="E379" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="E380" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="E381" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="E382" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="E383" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="E384" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="E385" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="E386" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>228</v>
+      </c>
+      <c r="B387" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="C388" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="D389" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="E390" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="E391" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="E392" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="E393" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="E394" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="E395" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="E396" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="E399" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="E400" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="E401" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="E402" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="E403" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="E404" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>228</v>
+      </c>
+      <c r="B406" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>228</v>
+      </c>
+      <c r="C407" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="D408" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="E409" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="E410" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="E411" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="E412" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="E413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="E414" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="E415" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="E416" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="E417" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="E418" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="E419" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="E420" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="E421" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>228</v>
+      </c>
+      <c r="C422" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="D424" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="E425" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="E426" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="E427" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="E431" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="E432" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="E433" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="E437" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>228</v>
+      </c>
+      <c r="C438" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="D439" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="E440" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="E441" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="E442" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="E443" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="E444" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="E445" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="E446" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="E447" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="E448" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="E449" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="E450" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="E451" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="E452" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="E453" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="E454" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>228</v>
+      </c>
+      <c r="C455" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="D456" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="E457" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="E458" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="E459" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="E460" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="E461" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="E462" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="E463" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="E464" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5">
+      <c r="E465" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="466" spans="5:5">
+      <c r="E466" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5">
+      <c r="E467" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="468" spans="5:5">
+      <c r="E468" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5">
+      <c r="E469" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="470" spans="5:5">
+      <c r="E470" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5">
+      <c r="E471" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="472" spans="5:5">
+      <c r="E472" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5">
+      <c r="E473" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="474" spans="5:5">
+      <c r="E474" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5">
+      <c r="E475" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="476" spans="5:5">
+      <c r="E476" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5">
+      <c r="E479" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="E481" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" t="s">
+        <v>228</v>
+      </c>
+      <c r="B482" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" t="s">
+        <v>228</v>
+      </c>
+      <c r="C483" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="D484" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="E485" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="E486" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="E487" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="E488" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="E489" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="E490" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="E491" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="E492" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="500" spans="5:5">
+      <c r="E500" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5">
+      <c r="E501" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="502" spans="5:5">
+      <c r="E502" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="503" spans="5:5">
+      <c r="E503" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="504" spans="5:5">
+      <c r="E504" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="505" spans="5:5">
+      <c r="E505" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="506" spans="5:5">
+      <c r="E506" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/template/b2c/template_b2c_new.xlsx
+++ b/template/b2c/template_b2c_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="150">
   <si>
     <t>SV_5</t>
   </si>
@@ -294,9 +294,6 @@
     <t xml:space="preserve"> A8(1||13)</t>
   </si>
   <si>
-    <t>MergedFrequency</t>
-  </si>
-  <si>
     <t>rowname1=1. Стоимость услуг провайдера@;rowname2=2. Набор тарифных планов и дополнительных услуг@;rowname3=3. Скорость Интернет@;rowname4=4. Стабильность соединения Интернет@;rowname5=5. Качество и стабильность изображения Телевидения@;rowname6=6. Набор / пакет телевизионных каналов@;rowname7=7. Обслуживание в телефонной службе технической@;rowname8=8. Понятность списания денег, информирование об изменении условий тарифов и услуг@;rowname9=9. Сайт оператора@;rowname10=10. Личный кабинет абонента на сайте@;rowname11=11. Заботу о клиенте@;rowname12=12. Другое@;rowname13=13. Затрудняюсь ответить</t>
   </si>
   <si>
@@ -306,411 +303,39 @@
     <t xml:space="preserve">MainHeader=A03 </t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A3(1||3)</t>
   </si>
   <si>
-    <t>MainHeader=A3. Были ли у Вас за последние 6 месяцев какиелибо проблемные ситуации / жалобы, для разрешения которых Вы обращались к провайдеру в телефонную службу поддержки, или в офис провайдера, или на сайт провайдера?</t>
-  </si>
-  <si>
-    <t>rowname1=Да@;rowname2=Нет@;rowname3=Затрудняюсь ответить / отказ от ответа</t>
-  </si>
-  <si>
-    <t>filter1=A3(1)</t>
-  </si>
-  <si>
-    <t>filter2=A3(2)</t>
-  </si>
-  <si>
-    <t>filter3=A3(3)</t>
-  </si>
-  <si>
     <t>A5(1||3)</t>
   </si>
   <si>
-    <t>MainHeader=А5. Приходилось ли Вам за последние 6 месяцев посещать офисы продаж и обслуживания провайдера?</t>
-  </si>
-  <si>
-    <t>filter1=A5(1)</t>
-  </si>
-  <si>
-    <t>filter2=A5(2)</t>
-  </si>
-  <si>
-    <t>filter3=A5(3)</t>
-  </si>
-  <si>
-    <t>A6(1||3)</t>
-  </si>
-  <si>
-    <t>MainHeader=А6. Приходилось ли Вам за последние 6 месяцев звонить по телефону в службу поддержки провайдера?</t>
-  </si>
-  <si>
-    <t>filter1=A6(1)</t>
-  </si>
-  <si>
-    <t>filter2=A6(2)</t>
-  </si>
-  <si>
-    <t>filter3=A6(3)</t>
-  </si>
-  <si>
-    <t>A6_1</t>
-  </si>
-  <si>
-    <t>MainHeader=A6.1. Когда Вы звонили в телефонную службу поддержки провайдера, Вам сразу ответил оператор, или сначала Вы должны были прослушать предварительно записанные голосовые сообщения, выполняющие функцию маршрутизации звонков?</t>
-  </si>
-  <si>
-    <t>rowname1=Сразу ответил оператор</t>
-  </si>
-  <si>
-    <t>rowname2=Сначала слушал голосовое сообщение</t>
-  </si>
-  <si>
-    <t>rowname3=Затрудняюсь ответить</t>
-  </si>
-  <si>
-    <t>filter1=A6_1(1)</t>
-  </si>
-  <si>
-    <t>filter2=A6_1(2)</t>
-  </si>
-  <si>
-    <t>filter3=A6_1(3)</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>A7(1||3)</t>
   </si>
   <si>
-    <t>MainHeader=А7. Есть ли у Вас личный кабинет на Интернет-сайте провайдера</t>
-  </si>
-  <si>
-    <t>filter1=A7(1)</t>
-  </si>
-  <si>
-    <t>filter2=A7(2)</t>
-  </si>
-  <si>
-    <t>filter3=A7(3)</t>
-  </si>
-  <si>
-    <t>MainHeader=А7.1. Пользовались ли Вы им за последние 6 месяцев?</t>
-  </si>
-  <si>
-    <t>filter1=A7_1(1)</t>
-  </si>
-  <si>
-    <t>filter2=A7_1(2)</t>
-  </si>
-  <si>
-    <t>filter3=A7_1(3)</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>A9(1||100)</t>
   </si>
   <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>DataPercentageOnly=true</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
     <t>S10(1|2)</t>
   </si>
   <si>
-    <t>rowname1=Мужской</t>
-  </si>
-  <si>
-    <t>rowname2=Женский</t>
-  </si>
-  <si>
-    <t>filter1=S10(1)</t>
-  </si>
-  <si>
-    <t>filter2=S10(2)</t>
-  </si>
-  <si>
-    <t>MainHeader=S10. Пол</t>
-  </si>
-  <si>
-    <t>age(1||4)</t>
-  </si>
-  <si>
-    <t>rowname1=18-25 лет</t>
-  </si>
-  <si>
-    <t>rowname2=26-35 лет</t>
-  </si>
-  <si>
-    <t>rowname3=36-45 лет</t>
-  </si>
-  <si>
-    <t>rowname4=46-55 лет</t>
-  </si>
-  <si>
-    <t>MainHeader=age. Возраст</t>
-  </si>
-  <si>
-    <t>filter1=age(1)</t>
-  </si>
-  <si>
-    <t>filter2=age(2)</t>
-  </si>
-  <si>
-    <t>filter3=age(3)</t>
-  </si>
-  <si>
-    <t>filter4=age(4)</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
     <t>X2(1||100)</t>
   </si>
   <si>
-    <t>MainHeader=Х2. Ваше семейное положение?</t>
-  </si>
-  <si>
-    <t>rowname1=Не женат (не замужем)</t>
-  </si>
-  <si>
-    <t>rowname2=Женат (замужем)</t>
-  </si>
-  <si>
-    <t>rowname3=Гражданский брак (живет вместе, но не зарегистрированы)</t>
-  </si>
-  <si>
-    <t>rowname4=Разведен (разведена)</t>
-  </si>
-  <si>
-    <t>rowname5=Вдовец (вдова)</t>
-  </si>
-  <si>
-    <t>rowname6=Отказ от ответа</t>
-  </si>
-  <si>
-    <t>filter1=X2(1)</t>
-  </si>
-  <si>
-    <t>filter2=X2(2)</t>
-  </si>
-  <si>
-    <t>filter3=X2(3)</t>
-  </si>
-  <si>
-    <t>filter4=X2(4)</t>
-  </si>
-  <si>
-    <t>filter5=X2(5)</t>
-  </si>
-  <si>
-    <t>filter6=X2(6)</t>
-  </si>
-  <si>
-    <t>X3k</t>
-  </si>
-  <si>
     <t>X3k(1||100)</t>
   </si>
   <si>
-    <t>MainHeader=X3. Сколько всего человек проживает вместе с Вами в одной квартире / доме (включая Вас и несовершеннолетних детей)?</t>
-  </si>
-  <si>
-    <t>rowname1=1</t>
-  </si>
-  <si>
-    <t>rowname2=2</t>
-  </si>
-  <si>
-    <t>rowname3=3</t>
-  </si>
-  <si>
-    <t>rowname4=4</t>
-  </si>
-  <si>
-    <t>rowname5=5+</t>
-  </si>
-  <si>
-    <t>filter6=X2(99)</t>
-  </si>
-  <si>
     <t>X3_1k(1||100)</t>
   </si>
   <si>
-    <t>MainHeader=X3.1 А сколько из них детей до 14 лет?</t>
-  </si>
-  <si>
-    <t>rowname1=Есть</t>
-  </si>
-  <si>
-    <t>rowname2=Нет</t>
-  </si>
-  <si>
-    <t>filter1=X3_1k(1)</t>
-  </si>
-  <si>
-    <t>filter2=X3_1k(2)</t>
-  </si>
-  <si>
-    <t>filter6=X3_1k(99)</t>
-  </si>
-  <si>
     <t>X4(1||100)</t>
   </si>
   <si>
-    <t>MainHeader=X4. Какое у Вас образование?</t>
-  </si>
-  <si>
-    <t>rowname1=Неполное среднее</t>
-  </si>
-  <si>
-    <t>rowname2=Среднее</t>
-  </si>
-  <si>
-    <t>rowname3=Среднее специальное</t>
-  </si>
-  <si>
-    <t>rowname4=Неполное высшее (не менее 3-х курсов)</t>
-  </si>
-  <si>
-    <t>rowname5=Высшее</t>
-  </si>
-  <si>
-    <t>rowname6=Ученая степень (кандидат наук, доктор наук)</t>
-  </si>
-  <si>
-    <t>rowname7=Отказ от ответа</t>
-  </si>
-  <si>
-    <t>filter1=X4(1)</t>
-  </si>
-  <si>
-    <t>filter2=X4(2)</t>
-  </si>
-  <si>
-    <t>filter3=X4(3)</t>
-  </si>
-  <si>
-    <t>filter4=X4(4)</t>
-  </si>
-  <si>
-    <t>filter5=X4(5)</t>
-  </si>
-  <si>
-    <t>filter6=X4(6)</t>
-  </si>
-  <si>
-    <t>filter7=X4(7)</t>
-  </si>
-  <si>
     <t>X5(1||100)</t>
   </si>
   <si>
-    <t>MainHeader=Х5. Какой в среднем в месяц Ваш личный доход (включая заработную плату, стипендии и все другие источники дохода)? Я зачитаю Вам интервалы дохода, а Вы остановите меня на интервале, который соответствует Вам.</t>
-  </si>
-  <si>
-    <t>rowname1=до 10000 руб.</t>
-  </si>
-  <si>
-    <t>rowname2=10001 - 20000 руб.</t>
-  </si>
-  <si>
-    <t>rowname3=20001 - 30000 руб.</t>
-  </si>
-  <si>
-    <t>rowname4=30001 - 40000 руб.</t>
-  </si>
-  <si>
-    <t>rowname5=40001 - 50000 руб.</t>
-  </si>
-  <si>
-    <t>rowname6=50001 - 60000 руб.</t>
-  </si>
-  <si>
-    <t>rowname7=60001 - 70000 руб.</t>
-  </si>
-  <si>
-    <t>rowname8=70001 - 80000 руб.</t>
-  </si>
-  <si>
-    <t>rowname9=80001 - 90000 руб.</t>
-  </si>
-  <si>
-    <t>rowname10=90001 - 100000 руб.</t>
-  </si>
-  <si>
-    <t>rowname11=100001+</t>
-  </si>
-  <si>
-    <t>rowname12=Отказ от ответа</t>
-  </si>
-  <si>
-    <t>X1C1</t>
-  </si>
-  <si>
-    <t>X1C1(0|1)</t>
-  </si>
-  <si>
-    <t>MainHeader=X1</t>
-  </si>
-  <si>
-    <t>rowname1=МТС</t>
-  </si>
-  <si>
-    <t>rowname2=Билайн</t>
-  </si>
-  <si>
-    <t>rowname3=Мегафон</t>
-  </si>
-  <si>
-    <t>rowname4=Теле2</t>
-  </si>
-  <si>
-    <t>rowname5=Ростелеком</t>
-  </si>
-  <si>
-    <t>rowname6=Другой</t>
-  </si>
-  <si>
-    <t>filter1=X1C1(1)</t>
-  </si>
-  <si>
-    <t>filter2=X1C2(1)</t>
-  </si>
-  <si>
-    <t>filter3=X1C3(1)</t>
-  </si>
-  <si>
-    <t>filter4=X1C4(1)</t>
-  </si>
-  <si>
-    <t>filter5=X1C5(1)</t>
-  </si>
-  <si>
-    <t>filter6=X1C6(1)</t>
-  </si>
-  <si>
-    <t>filter7=X1C7(1)</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>HeaderTotalOnly=true</t>
-  </si>
-  <si>
     <t>OlgaLinear</t>
   </si>
   <si>
@@ -775,42 +400,6 @@
   </si>
   <si>
     <t>groupfile3=template\b2c\X1.xlsx</t>
-  </si>
-  <si>
-    <t>filter1=X5(1)</t>
-  </si>
-  <si>
-    <t>filter2=X5(2)</t>
-  </si>
-  <si>
-    <t>filter3=X5(3)</t>
-  </si>
-  <si>
-    <t>filter4=X5(4)</t>
-  </si>
-  <si>
-    <t>filter5=X5(5)</t>
-  </si>
-  <si>
-    <t>filter6=X5(6)</t>
-  </si>
-  <si>
-    <t>filter8=X5(8)</t>
-  </si>
-  <si>
-    <t>filter9=X5(9)</t>
-  </si>
-  <si>
-    <t>filter10=X5(10)</t>
-  </si>
-  <si>
-    <t>filter11=X5(11)</t>
-  </si>
-  <si>
-    <t>filter12=X5(12)</t>
-  </si>
-  <si>
-    <t>filter7=X5(7)</t>
   </si>
   <si>
     <t xml:space="preserve"> A2_1(1||13)</t>
@@ -1224,19 +813,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="E506" sqref="A266:E506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="72.375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="61.5" customHeight="1">
@@ -1244,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1257,7 +846,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1281,18 +870,18 @@
     </row>
     <row r="8" spans="1:7" ht="146.25" customHeight="1">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -1301,18 +890,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="D10" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -1320,7 +909,7 @@
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -1329,17 +918,17 @@
     </row>
     <row r="15" spans="1:7">
       <c r="D15" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -1348,23 +937,23 @@
     </row>
     <row r="18" spans="1:7">
       <c r="D18" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="E19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" s="1" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -1373,12 +962,12 @@
     </row>
     <row r="22" spans="1:7">
       <c r="D22" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1386,12 +975,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="C27" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1399,20 +988,20 @@
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="E29" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="C30" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1422,10 +1011,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="E32" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="3:7">
@@ -1483,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -1496,7 +1085,7 @@
         <v>62</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="3:7">
@@ -1509,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="3:7">
@@ -1727,7 +1316,7 @@
     </row>
     <row r="84" spans="3:7">
       <c r="C84" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="3:7">
@@ -1737,7 +1326,7 @@
     </row>
     <row r="86" spans="3:7">
       <c r="E86" t="s">
-        <v>280</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="3:7">
@@ -1757,7 +1346,7 @@
     </row>
     <row r="90" spans="3:7">
       <c r="C90" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="3:7">
@@ -1765,20 +1354,20 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="3:7">
       <c r="E92" t="s">
-        <v>282</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="3:7">
       <c r="C93" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="3:7">
@@ -1788,10 +1377,10 @@
     </row>
     <row r="95" spans="3:7">
       <c r="E95" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="3:7">
@@ -1804,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>277</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="3:7">
@@ -1817,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>278</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="3:7">
@@ -2051,32 +1640,32 @@
     </row>
     <row r="167" spans="2:5">
       <c r="C167" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="D168" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="E169" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="2:5">
       <c r="C170" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="D171" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="E172" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
     </row>
     <row r="173" spans="2:5">
@@ -2086,12 +1675,12 @@
     </row>
     <row r="174" spans="2:5">
       <c r="D174" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="E175" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -2101,27 +1690,27 @@
     </row>
     <row r="177" spans="3:5">
       <c r="D177" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="E178" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="3:5">
       <c r="C179" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="3:5">
       <c r="D180" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="E181" t="s">
-        <v>240</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="3:5">
@@ -2131,132 +1720,132 @@
     </row>
     <row r="183" spans="3:5">
       <c r="D183" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="E184" t="s">
-        <v>286</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="C185" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="D186" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="E187" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="C188" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="D189" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="3:5">
       <c r="E190" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
     </row>
     <row r="192" spans="3:5">
       <c r="D192" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="3:5">
       <c r="C194" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="C197" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="D198" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="E199" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="C200" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="3:5">
       <c r="D201" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="3:5">
       <c r="E202" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="3:5">
       <c r="C203" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="3:5">
       <c r="D204" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205" spans="3:5">
       <c r="E205" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="206" spans="3:5">
       <c r="C206" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="3:5">
       <c r="D207" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="3:5">
       <c r="E208" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="209" spans="3:5">
@@ -2267,908 +1856,18 @@
     </row>
     <row r="210" spans="3:5">
       <c r="D210" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="3:5">
       <c r="E211" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="212" spans="3:5">
       <c r="E212" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" t="s">
-        <v>228</v>
-      </c>
-      <c r="B307" t="s">
-        <v>95</v>
-      </c>
-      <c r="E307" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="C308" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="D309" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="E310" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="E311" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="E312" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="E313" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="C315" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="D316" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="E317" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="E318" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="E319" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="E320" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="C322" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="D323" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="E324" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="E325" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="E326" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="E327" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" t="s">
-        <v>228</v>
-      </c>
-      <c r="B329" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="C330" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="D331" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="E332" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="E333" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="E334" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="E335" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="E336" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="E337" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="E338" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" t="s">
-        <v>228</v>
-      </c>
-      <c r="B339" t="s">
-        <v>120</v>
-      </c>
-      <c r="E339" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="C340" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="D341" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="E342" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="E343" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="E344" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="E345" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="C346" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="D347" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="E348" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="E349" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="E350" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="E351" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="B352" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="C353" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="D354" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="E355" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="E356" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" t="s">
-        <v>228</v>
-      </c>
-      <c r="B368" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
-      <c r="C369" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
-      <c r="D370" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
-      <c r="E371" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
-      <c r="E372" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
-      <c r="E373" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
-      <c r="E374" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="E375" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" t="s">
-        <v>228</v>
-      </c>
-      <c r="C376" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="D377" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="E378" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="E379" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="E380" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="E381" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
-      <c r="E382" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
-      <c r="E383" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
-      <c r="E384" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
-      <c r="E385" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
-      <c r="E386" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
-      <c r="A387" t="s">
-        <v>228</v>
-      </c>
-      <c r="B387" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
-      <c r="C388" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
-      <c r="D389" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="E390" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
-      <c r="E391" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
-      <c r="E392" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
-      <c r="E393" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="E394" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
-      <c r="E395" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
-      <c r="E396" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
-      <c r="E399" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
-      <c r="E400" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="E401" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="E402" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="E403" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="E404" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" t="s">
-        <v>228</v>
-      </c>
-      <c r="B406" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" t="s">
-        <v>228</v>
-      </c>
-      <c r="C407" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="D408" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="E409" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="E410" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="E411" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="E412" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="E413" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="E414" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="E415" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="E416" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="E417" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="E418" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="E419" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="E420" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="E421" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" t="s">
-        <v>228</v>
-      </c>
-      <c r="C422" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="D424" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="E425" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="E426" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="E427" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="E431" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="E432" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="E433" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="E437" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" t="s">
-        <v>228</v>
-      </c>
-      <c r="C438" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="D439" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="E440" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="E441" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="E442" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="E443" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="E444" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
-      <c r="E445" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="E446" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
-      <c r="E447" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
-      <c r="E448" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="E449" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="E450" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="E451" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
-      <c r="E452" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
-      <c r="E453" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="E454" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" t="s">
-        <v>228</v>
-      </c>
-      <c r="C455" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
-      <c r="D456" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="E457" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="E458" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="E459" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="E460" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
-      <c r="E461" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="E462" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
-      <c r="E463" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="E464" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="465" spans="5:5">
-      <c r="E465" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="466" spans="5:5">
-      <c r="E466" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="467" spans="5:5">
-      <c r="E467" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="468" spans="5:5">
-      <c r="E468" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="469" spans="5:5">
-      <c r="E469" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="470" spans="5:5">
-      <c r="E470" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="471" spans="5:5">
-      <c r="E471" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="472" spans="5:5">
-      <c r="E472" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="473" spans="5:5">
-      <c r="E473" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="474" spans="5:5">
-      <c r="E474" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="475" spans="5:5">
-      <c r="E475" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="476" spans="5:5">
-      <c r="E476" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="477" spans="5:5">
-      <c r="E477" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="478" spans="5:5">
-      <c r="E478" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="479" spans="5:5">
-      <c r="E479" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="480" spans="5:5">
-      <c r="E480" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="E481" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" t="s">
-        <v>228</v>
-      </c>
-      <c r="B482" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483" t="s">
-        <v>228</v>
-      </c>
-      <c r="C483" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="D484" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="E485" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
-      <c r="E486" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="E487" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="E488" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="E489" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="E490" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="E491" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="E492" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="500" spans="5:5">
-      <c r="E500" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="501" spans="5:5">
-      <c r="E501" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="502" spans="5:5">
-      <c r="E502" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="503" spans="5:5">
-      <c r="E503" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="504" spans="5:5">
-      <c r="E504" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="505" spans="5:5">
-      <c r="E505" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="506" spans="5:5">
-      <c r="E506" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
